--- a/notebooks/data/data_info.xlsx
+++ b/notebooks/data/data_info.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,63 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis/git/Tinnitus-n-Sleep/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65B5E59-2141-334A-B286-A36AFF5D93AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2447BA36-80AF-2A4A-AB75-C3C6516DC173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{16271BC3-7B0D-C743-8824-27C1FB013CBC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="data_info" localSheetId="0">Sheet1!$A$1:$Y$58</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{48CAD8EC-C0D2-2846-BE17-FA96C2BE9E9F}" name="data_info" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/louis/git/Tinnitus-n-Sleep/notebooks/data/data_info.csv" thousands=" " tab="0" semicolon="1">
-      <textFields count="25">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="163">
   <si>
     <t>filename</t>
   </si>
@@ -462,107 +418,104 @@
     <t>1UC22_nuit_2_resmed.edf</t>
   </si>
   <si>
+    <t>1ZN04_cohort2.edf</t>
+  </si>
+  <si>
+    <t>batch2</t>
+  </si>
+  <si>
+    <t>1HS25_cohort2.edf</t>
+  </si>
+  <si>
+    <t>1HS25</t>
+  </si>
+  <si>
+    <t>1PA31_cohort2.edf</t>
+  </si>
+  <si>
+    <t>1PA31</t>
+  </si>
+  <si>
+    <t>3NS01_cohort2.edf</t>
+  </si>
+  <si>
+    <t>3NS01</t>
+  </si>
+  <si>
+    <t>1CB23_cohort2.edf</t>
+  </si>
+  <si>
+    <t>1CB23</t>
+  </si>
+  <si>
+    <t>1RF29_cohort2.edf</t>
+  </si>
+  <si>
+    <t>1RF29</t>
+  </si>
+  <si>
+    <t>1GF14_cohort2.edf</t>
+  </si>
+  <si>
+    <t>1DM32_cohort2.edf</t>
+  </si>
+  <si>
+    <t>1DM32</t>
+  </si>
+  <si>
+    <t>3BS04_cohort2.edf</t>
+  </si>
+  <si>
+    <t>3BS04</t>
+  </si>
+  <si>
+    <t>3TR07_cohort2.edf</t>
+  </si>
+  <si>
+    <t>3TR07</t>
+  </si>
+  <si>
+    <t>3KB06_cohort2.edf</t>
+  </si>
+  <si>
+    <t>3KB06</t>
+  </si>
+  <si>
+    <t>1NS30_cohort2.edf</t>
+  </si>
+  <si>
+    <t>1NS30</t>
+  </si>
+  <si>
+    <t>1AC26_cohort2.edf</t>
+  </si>
+  <si>
     <t>1AC26</t>
   </si>
   <si>
-    <t>1CB23</t>
-  </si>
-  <si>
-    <t>1NS30</t>
-  </si>
-  <si>
-    <t>1PA31</t>
-  </si>
-  <si>
-    <t>1RF29</t>
+    <t>3CL02_cohort2.edf</t>
   </si>
   <si>
     <t>3CL02</t>
   </si>
   <si>
+    <t>3TS03_cohort2.edf</t>
+  </si>
+  <si>
+    <t>3TS03</t>
+  </si>
+  <si>
+    <t>3HS08_cohort2.edf</t>
+  </si>
+  <si>
     <t>3HS08</t>
-  </si>
-  <si>
-    <t>3KB06</t>
-  </si>
-  <si>
-    <t>3NS01</t>
-  </si>
-  <si>
-    <t>3TR07</t>
-  </si>
-  <si>
-    <t>3TS03</t>
-  </si>
-  <si>
-    <t>batch2</t>
-  </si>
-  <si>
-    <t>1HS31</t>
-  </si>
-  <si>
-    <t>1DM32</t>
-  </si>
-  <si>
-    <t>3SB04</t>
-  </si>
-  <si>
-    <t>batch3</t>
-  </si>
-  <si>
-    <t>1AC26_cohort2.edf</t>
-  </si>
-  <si>
-    <t>3HS08_cohort2.edf</t>
-  </si>
-  <si>
-    <t>3TS03_cohort2.edf</t>
-  </si>
-  <si>
-    <t>3CL02_cohort2.edf</t>
-  </si>
-  <si>
-    <t>3KB06_cohort2.edf</t>
-  </si>
-  <si>
-    <t>3TR07_cohort2.edf</t>
-  </si>
-  <si>
-    <t>1NS30_cohort2.edf</t>
-  </si>
-  <si>
-    <t>1DM32_cohort2.edf</t>
-  </si>
-  <si>
-    <t>1RF29_cohort2.edf</t>
-  </si>
-  <si>
-    <t>1GF14_cohort2.edf</t>
-  </si>
-  <si>
-    <t>1PA31_cohort2.edf</t>
-  </si>
-  <si>
-    <t>3NS01_cohort2.edf</t>
-  </si>
-  <si>
-    <t>1CB23_cohort2.edf</t>
-  </si>
-  <si>
-    <t>1ZN04_cohort2.edf</t>
-  </si>
-  <si>
-    <t>1HS31_cohort2.edf</t>
-  </si>
-  <si>
-    <t>3SB04_cohort2.edf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -571,21 +524,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -593,16 +840,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,10 +1050,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data_info" connectionId="1" xr16:uid="{723BDFBB-0F90-7947-954F-972E4D98F30F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,41 +1348,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B656E0E-707C-6A44-85F4-654A9484715D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="760" topLeftCell="A39" activePane="bottomLeft"/>
-      <selection sqref="A1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1062,7 +1469,7 @@
         <v>12.34</v>
       </c>
       <c r="K2">
-        <v>1.4249422632794499</v>
+        <v>1.4249422629999999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1136,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>-12.6733333333333</v>
+        <v>-12.67333333</v>
       </c>
       <c r="K3">
-        <v>-0.73115384615384604</v>
+        <v>-0.731153846</v>
       </c>
       <c r="L3">
         <v>-4</v>
@@ -1293,7 +1700,7 @@
         <v>-0.66</v>
       </c>
       <c r="K5">
-        <v>-0.14163090128755401</v>
+        <v>-0.141630901</v>
       </c>
       <c r="L5">
         <v>-2</v>
@@ -1367,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.66666666666666796</v>
+        <v>-0.66666666699999999</v>
       </c>
       <c r="K6">
-        <v>-2.2222222222222299E-2</v>
+        <v>-2.2222222E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1447,7 +1854,7 @@
         <v>-2</v>
       </c>
       <c r="K7">
-        <v>-7.3170731707317097E-2</v>
+        <v>-7.3170732000000002E-2</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1521,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>-2.3333333333333401</v>
+        <v>-2.3333333330000001</v>
       </c>
       <c r="K8">
-        <v>-5.07246376811595E-2</v>
+        <v>-5.0724638000000002E-2</v>
       </c>
       <c r="L8">
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-0.16666666666666699</v>
+        <v>-0.16666666699999999</v>
       </c>
       <c r="N8">
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-0.16666666666666699</v>
+        <v>-0.16666666699999999</v>
       </c>
       <c r="P8" t="s">
         <v>36</v>
@@ -1598,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-15.3333333333333</v>
+        <v>-15.33333333</v>
       </c>
       <c r="K9">
-        <v>-0.37704918032786899</v>
+        <v>-0.37704917999999998</v>
       </c>
       <c r="L9">
         <v>-3</v>
@@ -1675,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.3333333333333299</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="K10">
         <v>0.25</v>
@@ -1749,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.33333333333333598</v>
+        <v>0.33333333300000001</v>
       </c>
       <c r="K11">
-        <v>2.0408163265306301E-2</v>
+        <v>2.0408163E-2</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1829,7 +2236,7 @@
         <v>2.34</v>
       </c>
       <c r="K12">
-        <v>3.7950048653908601E-2</v>
+        <v>3.7950049E-2</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1841,7 +2248,7 @@
         <v>-1</v>
       </c>
       <c r="O12">
-        <v>-0.16666666666666699</v>
+        <v>-0.16666666699999999</v>
       </c>
       <c r="P12" t="s">
         <v>52</v>
@@ -1903,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>-10.6666666666667</v>
+        <v>-10.66666667</v>
       </c>
       <c r="K13">
-        <v>-0.164948453608247</v>
+        <v>-0.16494845399999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2137,19 +2544,19 @@
         <v>9</v>
       </c>
       <c r="K16">
-        <v>0.33333333333333298</v>
+        <v>0.33333333300000001</v>
       </c>
       <c r="L16">
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-0.14285714285714299</v>
+        <v>-0.14285714299999999</v>
       </c>
       <c r="N16">
         <v>-1</v>
       </c>
       <c r="O16">
-        <v>-0.14285714285714299</v>
+        <v>-0.14285714299999999</v>
       </c>
       <c r="P16" t="s">
         <v>29</v>
@@ -2211,22 +2618,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>-2.6666666666666599</v>
+        <v>-2.6666666669999999</v>
       </c>
       <c r="K17">
-        <v>-9.7560975609756004E-2</v>
+        <v>-9.7560975999999994E-2</v>
       </c>
       <c r="L17">
         <v>-2</v>
       </c>
       <c r="M17">
-        <v>-0.33333333333333298</v>
+        <v>-0.33333333300000001</v>
       </c>
       <c r="N17">
         <v>-2</v>
       </c>
       <c r="O17">
-        <v>-0.33333333333333298</v>
+        <v>-0.33333333300000001</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -2288,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.32999999999999802</v>
+        <v>0.33</v>
       </c>
       <c r="K18">
-        <v>5.7561486132914402E-3</v>
+        <v>5.7561490000000003E-3</v>
       </c>
       <c r="L18">
         <v>-3</v>
@@ -2368,7 +2775,7 @@
         <v>7.67</v>
       </c>
       <c r="K19">
-        <v>0.12644246620507801</v>
+        <v>0.126442466</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -2445,13 +2852,13 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>6.0024009603841501E-2</v>
+        <v>6.0024010000000003E-2</v>
       </c>
       <c r="L20">
         <v>-4</v>
       </c>
       <c r="M20">
-        <v>-0.57142857142857095</v>
+        <v>-0.571428571</v>
       </c>
       <c r="N20">
         <v>-4</v>
@@ -2522,13 +2929,13 @@
         <v>9</v>
       </c>
       <c r="K21">
-        <v>0.52941176470588203</v>
+        <v>0.52941176499999998</v>
       </c>
       <c r="L21">
         <v>2</v>
       </c>
       <c r="M21">
-        <v>0.66666666666666696</v>
+        <v>0.66666666699999999</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2676,7 +3083,7 @@
         <v>-1.66</v>
       </c>
       <c r="K23">
-        <v>-5.7920446615491998E-2</v>
+        <v>-5.7920447E-2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2753,7 +3160,7 @@
         <v>1.34</v>
       </c>
       <c r="K24">
-        <v>0.36612021857923499</v>
+        <v>0.36612021900000002</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2830,7 +3237,7 @@
         <v>-0.33</v>
       </c>
       <c r="K25">
-        <v>-9.0163934426229497E-2</v>
+        <v>-9.0163934000000001E-2</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2907,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0.157894736842105</v>
+        <v>0.15789473700000001</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3061,7 +3468,7 @@
         <v>0.67</v>
       </c>
       <c r="K28">
-        <v>0.143776824034335</v>
+        <v>0.143776824</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3138,7 +3545,7 @@
         <v>-0.67</v>
       </c>
       <c r="K29">
-        <v>-0.12570356472795499</v>
+        <v>-0.12570356499999999</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3212,7 +3619,7 @@
         <v>-16</v>
       </c>
       <c r="K30">
-        <v>-0.22535211267605601</v>
+        <v>-0.22535211299999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3286,19 +3693,19 @@
         <v>-24</v>
       </c>
       <c r="K31">
-        <v>-0.36363636363636398</v>
+        <v>-0.36363636399999999</v>
       </c>
       <c r="L31">
         <v>-2</v>
       </c>
       <c r="M31">
-        <v>-0.28571428571428598</v>
+        <v>-0.28571428599999998</v>
       </c>
       <c r="N31">
         <v>-2</v>
       </c>
       <c r="O31">
-        <v>-0.28571428571428598</v>
+        <v>-0.28571428599999998</v>
       </c>
       <c r="P31" t="s">
         <v>36</v>
@@ -3688,7 +4095,7 @@
         <v>-4</v>
       </c>
       <c r="K37">
-        <v>-8.8888888888888906E-2</v>
+        <v>-8.8888888999999999E-2</v>
       </c>
       <c r="L37">
         <v>-2</v>
@@ -3762,7 +4169,7 @@
         <v>-2</v>
       </c>
       <c r="K38">
-        <v>-4.8780487804878099E-2</v>
+        <v>-4.8780487999999997E-2</v>
       </c>
       <c r="L38">
         <v>-1</v>
@@ -4037,7 +4444,7 @@
         <v>5</v>
       </c>
       <c r="K42">
-        <v>0.10638297872340401</v>
+        <v>0.106382979</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -4521,7 +4928,7 @@
         <v>-16</v>
       </c>
       <c r="K53">
-        <v>-0.22535211267605601</v>
+        <v>-0.22535211299999999</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -4598,19 +5005,19 @@
         <v>-24</v>
       </c>
       <c r="K54">
-        <v>-0.36363636363636398</v>
+        <v>-0.36363636399999999</v>
       </c>
       <c r="L54">
         <v>-2</v>
       </c>
       <c r="M54">
-        <v>-0.28571428571428598</v>
+        <v>-0.28571428599999998</v>
       </c>
       <c r="N54">
         <v>-2</v>
       </c>
       <c r="O54">
-        <v>-0.28571428571428598</v>
+        <v>-0.28571428599999998</v>
       </c>
       <c r="P54" t="s">
         <v>40</v>
@@ -4675,7 +5082,7 @@
         <v>-2</v>
       </c>
       <c r="K55">
-        <v>-4.8780487804878099E-2</v>
+        <v>-4.8780487999999997E-2</v>
       </c>
       <c r="L55">
         <v>-1</v>
@@ -4817,7 +5224,7 @@
         <v>5</v>
       </c>
       <c r="K57">
-        <v>0.10638297872340401</v>
+        <v>0.106382979</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -4940,17 +5347,17 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
         <v>79</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4964,25 +5371,66 @@
       <c r="I59">
         <v>0</v>
       </c>
+      <c r="J59">
+        <f>-S59+V59</f>
+        <v>-0.66666666699999988</v>
+      </c>
+      <c r="K59">
+        <f>(V59-S59)/S59</f>
+        <v>-0.25000000009374995</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>41</v>
+      </c>
+      <c r="R59">
+        <v>8000</v>
+      </c>
       <c r="S59">
-        <v>2.6666666666666665</v>
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
       </c>
       <c r="V59">
         <v>2</v>
       </c>
+      <c r="W59">
+        <v>2</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>144</v>
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4996,25 +5444,69 @@
       <c r="I60">
         <v>0</v>
       </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J74" si="0">-S60+V60</f>
+        <v>4.3333333369999991</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60:K74" si="1">(V60-S60)/S60</f>
+        <v>0.52000000046079986</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>-4</v>
+      </c>
+      <c r="O60">
+        <v>-2</v>
+      </c>
+      <c r="P60" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>41</v>
+      </c>
+      <c r="R60">
+        <v>8000</v>
+      </c>
       <c r="S60">
-        <v>8.3333333333333339</v>
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>12.666666666666666</v>
+        <v>12.66666667</v>
+      </c>
+      <c r="W60">
+        <v>6</v>
+      </c>
+      <c r="X60">
+        <v>6</v>
+      </c>
+      <c r="Y60">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>135</v>
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5027,26 +5519,70 @@
       </c>
       <c r="I61">
         <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="N61">
+        <v>-1</v>
+      </c>
+      <c r="O61">
+        <v>-0.16666666699999999</v>
+      </c>
+      <c r="P61" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>41</v>
+      </c>
+      <c r="R61">
+        <v>8000</v>
       </c>
       <c r="S61">
         <v>8</v>
       </c>
+      <c r="T61">
+        <v>6</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
+      </c>
       <c r="V61">
         <v>8</v>
       </c>
+      <c r="W61">
+        <v>7</v>
+      </c>
+      <c r="X61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>140</v>
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5059,27 +5595,71 @@
       </c>
       <c r="I62">
         <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>-0.36842105263157893</v>
+      </c>
+      <c r="L62">
+        <v>-1</v>
+      </c>
+      <c r="M62">
+        <v>-0.25</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>0.4</v>
+      </c>
+      <c r="P62" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>41</v>
+      </c>
+      <c r="R62">
+        <v>8000</v>
       </c>
       <c r="S62">
         <v>19</v>
       </c>
+      <c r="T62">
+        <v>4</v>
+      </c>
+      <c r="U62">
+        <v>5</v>
+      </c>
       <c r="V62">
         <v>12</v>
       </c>
+      <c r="W62">
+        <v>3</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
         <v>133</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>143</v>
-      </c>
       <c r="E63">
         <v>1</v>
       </c>
@@ -5091,26 +5671,70 @@
       </c>
       <c r="I63">
         <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-1</v>
+      </c>
+      <c r="M63">
+        <v>-0.2</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>41</v>
+      </c>
+      <c r="R63">
+        <v>8000</v>
       </c>
       <c r="S63">
         <v>5</v>
       </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
       <c r="V63">
         <v>5</v>
       </c>
+      <c r="W63">
+        <v>4</v>
+      </c>
+      <c r="X63">
+        <v>3</v>
+      </c>
+      <c r="Y63">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>136</v>
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -5123,26 +5747,70 @@
       </c>
       <c r="I64">
         <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>-1</v>
+      </c>
+      <c r="M64">
+        <v>-0.5</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>41</v>
+      </c>
+      <c r="R64">
+        <v>8000</v>
       </c>
       <c r="S64">
         <v>3</v>
       </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
       <c r="V64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" t="s">
         <v>50</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -5156,25 +5824,69 @@
       <c r="I65">
         <v>0</v>
       </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>6.3333333399999958</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>0.12837837852218764</v>
+      </c>
+      <c r="L65">
+        <v>-1</v>
+      </c>
+      <c r="M65">
+        <v>-0.111111111</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>41</v>
+      </c>
+      <c r="R65">
+        <v>8000</v>
+      </c>
       <c r="S65">
-        <v>49.333333333333336</v>
+        <v>49.333333330000002</v>
+      </c>
+      <c r="T65">
+        <v>9</v>
+      </c>
+      <c r="U65">
+        <v>7</v>
       </c>
       <c r="V65">
-        <v>55.666666666666664</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="1" t="s">
+        <v>55.666666669999998</v>
+      </c>
+      <c r="W65">
+        <v>8</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>145</v>
       </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -5188,25 +5900,69 @@
       <c r="I66">
         <v>0</v>
       </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0.18750000001171876</v>
+      </c>
+      <c r="L66">
+        <v>-1</v>
+      </c>
+      <c r="M66">
+        <v>-0.25</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>41</v>
+      </c>
+      <c r="R66">
+        <v>8000</v>
+      </c>
       <c r="S66">
-        <v>5.333333333333333</v>
+        <v>5.3333333329999997</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>6.333333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="W66">
+        <v>3</v>
+      </c>
+      <c r="X66">
+        <v>2</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -5219,26 +5975,70 @@
       </c>
       <c r="I67">
         <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="1"/>
+        <v>-0.25</v>
+      </c>
+      <c r="L67">
+        <v>-1</v>
+      </c>
+      <c r="M67">
+        <v>-0.16666666699999999</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="P67" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>41</v>
+      </c>
+      <c r="R67">
+        <v>8000</v>
       </c>
       <c r="S67">
         <v>4</v>
       </c>
+      <c r="T67">
+        <v>6</v>
+      </c>
+      <c r="U67">
+        <v>6</v>
+      </c>
       <c r="V67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>141</v>
+      <c r="W67">
+        <v>5</v>
+      </c>
+      <c r="X67">
+        <v>5</v>
+      </c>
+      <c r="Y67">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -5251,26 +6051,70 @@
       </c>
       <c r="I68">
         <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="0"/>
+        <v>-0.66666666700000032</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>-0.11111111116666672</v>
+      </c>
+      <c r="L68">
+        <v>-1</v>
+      </c>
+      <c r="M68">
+        <v>-0.125</v>
+      </c>
+      <c r="N68">
+        <v>-2</v>
+      </c>
+      <c r="O68">
+        <v>-0.4</v>
+      </c>
+      <c r="P68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>41</v>
+      </c>
+      <c r="R68">
+        <v>8000</v>
       </c>
       <c r="S68">
         <v>6</v>
       </c>
+      <c r="T68">
+        <v>8</v>
+      </c>
+      <c r="U68">
+        <v>5</v>
+      </c>
       <c r="V68">
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+        <v>5.3333333329999997</v>
+      </c>
+      <c r="W68">
+        <v>7</v>
+      </c>
+      <c r="X68">
+        <v>7</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -5283,26 +6127,70 @@
       </c>
       <c r="I69">
         <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>-8.1632653061224483E-2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>41</v>
+      </c>
+      <c r="R69">
+        <v>8000</v>
       </c>
       <c r="S69">
         <v>49</v>
       </c>
+      <c r="T69">
+        <v>6</v>
+      </c>
+      <c r="U69">
+        <v>8</v>
+      </c>
       <c r="V69">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="W69">
+        <v>6</v>
+      </c>
+      <c r="X69">
+        <v>8</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -5315,26 +6203,70 @@
       </c>
       <c r="I70">
         <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>-1</v>
+      </c>
+      <c r="O70">
+        <v>-1</v>
+      </c>
+      <c r="P70" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>41</v>
+      </c>
+      <c r="R70">
+        <v>8000</v>
       </c>
       <c r="S70">
         <v>2</v>
       </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
       <c r="V70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>132</v>
+      <c r="W70">
+        <v>4</v>
+      </c>
+      <c r="X70">
+        <v>2</v>
+      </c>
+      <c r="Y70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5348,25 +6280,69 @@
       <c r="I71">
         <v>0</v>
       </c>
+      <c r="J71">
+        <f t="shared" si="0"/>
+        <v>4.3333333400000029</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>0.20312500034423844</v>
+      </c>
+      <c r="L71">
+        <v>-1</v>
+      </c>
+      <c r="M71">
+        <v>-0.16666666699999999</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="P71" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>41</v>
+      </c>
+      <c r="R71">
+        <v>8000</v>
+      </c>
       <c r="S71">
-        <v>21.333333333333332</v>
+        <v>21.333333329999999</v>
+      </c>
+      <c r="T71">
+        <v>6</v>
+      </c>
+      <c r="U71">
+        <v>6</v>
       </c>
       <c r="V71">
-        <v>25.666666666666668</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>137</v>
+        <v>25.666666670000001</v>
+      </c>
+      <c r="W71">
+        <v>5</v>
+      </c>
+      <c r="X71">
+        <v>4</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5380,25 +6356,69 @@
       <c r="I72">
         <v>0</v>
       </c>
+      <c r="J72">
+        <f t="shared" si="0"/>
+        <v>-0.33333333399999976</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>-0.12500000023437491</v>
+      </c>
+      <c r="L72">
+        <v>-1</v>
+      </c>
+      <c r="M72">
+        <v>-0.33333333300000001</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0.5</v>
+      </c>
+      <c r="P72" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>41</v>
+      </c>
+      <c r="R72">
+        <v>8000</v>
+      </c>
       <c r="S72">
-        <v>2.6666666666666665</v>
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="W72">
+        <v>2</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5411,26 +6431,70 @@
       </c>
       <c r="I73">
         <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="0"/>
+        <v>7.6666666699999979</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>0.21296296305555551</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="N73">
+        <v>-1</v>
+      </c>
+      <c r="O73">
+        <v>-0.25</v>
+      </c>
+      <c r="P73" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>41</v>
+      </c>
+      <c r="R73">
+        <v>8000</v>
       </c>
       <c r="S73">
         <v>36</v>
       </c>
+      <c r="T73">
+        <v>6</v>
+      </c>
+      <c r="U73">
+        <v>4</v>
+      </c>
       <c r="V73">
-        <v>43.666666666666664</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>43.666666669999998</v>
+      </c>
+      <c r="W73">
+        <v>7</v>
+      </c>
+      <c r="X73">
+        <v>5</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5444,15 +6508,58 @@
       <c r="I74">
         <v>0</v>
       </c>
+      <c r="J74">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="1"/>
+        <v>-0.27272727270247937</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>41</v>
+      </c>
+      <c r="R74">
+        <v>8000</v>
+      </c>
       <c r="S74">
-        <v>3.6666666666666665</v>
+        <v>3.6666666669999999</v>
+      </c>
+      <c r="T74">
+        <v>6</v>
+      </c>
+      <c r="U74">
+        <v>6</v>
       </c>
       <c r="V74">
-        <v>2.6666666666666665</v>
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="W74">
+        <v>6</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/notebooks/data/data_info.xlsx
+++ b/notebooks/data/data_info.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeta\Documents\acou_sommeil_HD_ENS\Tinnitus-n-Sleep\drafts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeta\Documents\acou_sommeil_HD_ENS\Tinnitus-n-Sleep\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B35C97E8-088E-4A82-B419-AC81372AD868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B424D4B-3118-4DA0-8DE6-B1790EEC47D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -967,7 +978,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1801,11 +1812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K52" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1930,6 +1941,16 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I57" si="0">F2</f>
+        <v>0</v>
+      </c>
       <c r="N2" t="s">
         <v>36</v>
       </c>
@@ -2010,6 +2031,16 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N3" t="s">
         <v>36</v>
       </c>
@@ -2090,6 +2121,16 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N4" t="s">
         <v>36</v>
       </c>
@@ -2170,6 +2211,16 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N5" t="s">
         <v>36</v>
       </c>
@@ -2250,6 +2301,16 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N6" t="s">
         <v>36</v>
       </c>
@@ -2330,6 +2391,16 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N7" t="s">
         <v>36</v>
       </c>
@@ -2410,6 +2481,16 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N8" t="s">
         <v>36</v>
       </c>
@@ -2490,6 +2571,16 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N9" t="s">
         <v>36</v>
       </c>
@@ -2570,6 +2661,16 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N10" t="s">
         <v>36</v>
       </c>
@@ -2650,6 +2751,16 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O11">
         <v>1</v>
       </c>
@@ -2727,6 +2838,16 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N12" t="s">
         <v>98</v>
       </c>
@@ -2807,6 +2928,16 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N13" t="s">
         <v>36</v>
       </c>
@@ -2887,6 +3018,16 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N14" t="s">
         <v>110</v>
       </c>
@@ -2967,6 +3108,16 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N15" t="s">
         <v>36</v>
       </c>
@@ -3047,6 +3198,16 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N16" t="s">
         <v>115</v>
       </c>
@@ -3127,6 +3288,16 @@
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N17" t="s">
         <v>36</v>
       </c>
@@ -3207,6 +3378,16 @@
       <c r="F18">
         <v>0</v>
       </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N18" t="s">
         <v>36</v>
       </c>
@@ -3287,6 +3468,16 @@
       <c r="F19">
         <v>0</v>
       </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N19" t="s">
         <v>36</v>
       </c>
@@ -3367,6 +3558,16 @@
       <c r="F20">
         <v>0</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N20" t="s">
         <v>36</v>
       </c>
@@ -3447,6 +3648,16 @@
       <c r="F21">
         <v>0</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N21" t="s">
         <v>36</v>
       </c>
@@ -3527,6 +3738,16 @@
       <c r="F22">
         <v>0</v>
       </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N22" t="s">
         <v>36</v>
       </c>
@@ -3607,6 +3828,16 @@
       <c r="F23">
         <v>0</v>
       </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N23" t="s">
         <v>36</v>
       </c>
@@ -3687,6 +3918,16 @@
       <c r="F24">
         <v>1</v>
       </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N24" t="s">
         <v>152</v>
       </c>
@@ -3767,6 +4008,16 @@
       <c r="F25">
         <v>0</v>
       </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N25" t="s">
         <v>36</v>
       </c>
@@ -3847,6 +4098,16 @@
       <c r="F26">
         <v>0</v>
       </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N26" t="s">
         <v>36</v>
       </c>
@@ -3927,6 +4188,16 @@
       <c r="F27">
         <v>0</v>
       </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N27" t="s">
         <v>36</v>
       </c>
@@ -4007,6 +4278,16 @@
       <c r="F28">
         <v>0</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N28" t="s">
         <v>36</v>
       </c>
@@ -4087,6 +4368,16 @@
       <c r="F29">
         <v>0</v>
       </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N29" t="s">
         <v>36</v>
       </c>
@@ -4167,6 +4458,16 @@
       <c r="F30">
         <v>1</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O30">
         <v>1</v>
       </c>
@@ -4244,6 +4545,16 @@
       <c r="F31">
         <v>1</v>
       </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O31">
         <v>1</v>
       </c>
@@ -4321,6 +4632,16 @@
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N32" t="s">
         <v>184</v>
       </c>
@@ -4401,6 +4722,16 @@
       <c r="F33">
         <v>1</v>
       </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O33">
         <v>1</v>
       </c>
@@ -4466,6 +4797,16 @@
       <c r="F34">
         <v>1</v>
       </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O34">
         <v>1</v>
       </c>
@@ -4531,6 +4872,16 @@
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O35">
         <v>1</v>
       </c>
@@ -4596,6 +4947,16 @@
       <c r="F36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O36">
         <v>1</v>
       </c>
@@ -4661,6 +5022,16 @@
       <c r="F37">
         <v>0</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N37" t="s">
         <v>192</v>
       </c>
@@ -4741,6 +5112,16 @@
       <c r="F38">
         <v>1</v>
       </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O38">
         <v>1</v>
       </c>
@@ -4818,6 +5199,16 @@
       <c r="F39">
         <v>1</v>
       </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O39">
         <v>1</v>
       </c>
@@ -4883,6 +5274,16 @@
       <c r="F40">
         <v>1</v>
       </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N40" t="s">
         <v>152</v>
       </c>
@@ -4951,6 +5352,16 @@
       <c r="F41">
         <v>1</v>
       </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O41">
         <v>1</v>
       </c>
@@ -5028,6 +5439,16 @@
       <c r="F42">
         <v>1</v>
       </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O42">
         <v>1</v>
       </c>
@@ -5105,6 +5526,16 @@
       <c r="F43">
         <v>0</v>
       </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N43" t="s">
         <v>206</v>
       </c>
@@ -5185,6 +5616,16 @@
       <c r="F44">
         <v>1</v>
       </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O44">
         <v>1</v>
       </c>
@@ -5223,6 +5664,16 @@
       <c r="F45">
         <v>1</v>
       </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O45">
         <v>1</v>
       </c>
@@ -5261,6 +5712,16 @@
       <c r="F46">
         <v>0</v>
       </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N46" t="s">
         <v>218</v>
       </c>
@@ -5302,6 +5763,16 @@
       <c r="F47">
         <v>1</v>
       </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N47" t="s">
         <v>221</v>
       </c>
@@ -5343,6 +5814,16 @@
       <c r="F48">
         <v>1</v>
       </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N48" t="s">
         <v>221</v>
       </c>
@@ -5384,6 +5865,16 @@
       <c r="F49">
         <v>0</v>
       </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N49" t="s">
         <v>36</v>
       </c>
@@ -5425,6 +5916,16 @@
       <c r="F50">
         <v>0</v>
       </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N50" t="s">
         <v>36</v>
       </c>
@@ -5466,6 +5967,16 @@
       <c r="F51">
         <v>1</v>
       </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O51">
         <v>1</v>
       </c>
@@ -5504,6 +6015,16 @@
       <c r="F52">
         <v>1</v>
       </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O52">
         <v>1</v>
       </c>
@@ -5542,6 +6063,16 @@
       <c r="F53">
         <v>1</v>
       </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N53" t="s">
         <v>231</v>
       </c>
@@ -5622,6 +6153,16 @@
       <c r="F54">
         <v>1</v>
       </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N54" t="s">
         <v>231</v>
       </c>
@@ -5702,6 +6243,16 @@
       <c r="F55">
         <v>1</v>
       </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N55" t="s">
         <v>231</v>
       </c>
@@ -5782,6 +6333,16 @@
       <c r="F56">
         <v>1</v>
       </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N56" t="s">
         <v>231</v>
       </c>
@@ -5850,6 +6411,16 @@
       <c r="F57">
         <v>1</v>
       </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="N57" t="s">
         <v>231</v>
       </c>
@@ -5930,6 +6501,16 @@
       <c r="F58">
         <v>1</v>
       </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>F58</f>
+        <v>1</v>
+      </c>
       <c r="N58" t="s">
         <v>231</v>
       </c>
@@ -7586,7 +8167,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>310</v>
       </c>

--- a/notebooks/data/data_info.xlsx
+++ b/notebooks/data/data_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeta\Documents\acou_sommeil_HD_ENS\Tinnitus-n-Sleep\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B424D4B-3118-4DA0-8DE6-B1790EEC47D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D22272-CBFC-4E12-9134-D4F3A4D820C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="314">
   <si>
     <t>filename</t>
   </si>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="W52" workbookViewId="0">
+      <selection activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6666,6 +6666,9 @@
       <c r="AE59">
         <v>1</v>
       </c>
+      <c r="AF59" t="s">
+        <v>91</v>
+      </c>
       <c r="AG59" t="s">
         <v>44</v>
       </c>
